--- a/text_classification_hatespeech/TrainedModel_for_FeatureCreation/expResults.xlsx
+++ b/text_classification_hatespeech/TrainedModel_for_FeatureCreation/expResults.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YShimada-MBP16/Documents/Code_Github/DL_for_ImageData_and_Finetuning/text_classification_hatespeech/TrainedModel_for_FeatureCreation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBE91E8-A813-7D40-964C-4F94DCD24769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC04396A-D56D-4149-B95C-1DABD0FBFE06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36940" yWindow="1740" windowWidth="28300" windowHeight="17440" xr2:uid="{CC55D45F-FA6D-B349-84F8-A179CE0DED28}"/>
+    <workbookView xWindow="35960" yWindow="3140" windowWidth="28300" windowHeight="17440" xr2:uid="{CC55D45F-FA6D-B349-84F8-A179CE0DED28}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="result" sheetId="1" r:id="rId1"/>
+    <sheet name="hatespeech_zeroshot" sheetId="3" r:id="rId2"/>
+    <sheet name="hatespeech_zeroshot_tkn" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Experiment Name</t>
     <phoneticPr fontId="1"/>
@@ -71,6 +73,26 @@
   </si>
   <si>
     <t>hatespeech_zeroshot_tkn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>事前学習モデル特徴量のみで学習</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ジゼンガクシュウ </t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t xml:space="preserve">トクチョウリョウノミデ </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">ガクシュウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>事前学習モデル特徴量 + 元テキストのTFIDF</t>
+    <rPh sb="13" eb="14">
+      <t xml:space="preserve">モト </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -78,7 +100,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -102,6 +124,12 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -135,7 +163,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -146,6 +174,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -163,6 +194,104 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>137845</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAF6B777-0DC3-B3F1-8C40-3E091DB7EB1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="508000"/>
+          <a:ext cx="7772400" cy="4201845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>160193</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15FFBBA1-10DB-2C8F-98AE-B85E73C278CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="508000"/>
+          <a:ext cx="7772400" cy="4224193"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -482,20 +611,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02483E53-685C-9D44-AA30-0BE5D6D460D9}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.140625" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -503,17 +633,18 @@
       <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -523,17 +654,20 @@
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
         <v>0.3449508</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.36065570000000002</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>3.0902777777777777E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -543,13 +677,16 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
         <v>0.62109910000000002</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.57971010000000001</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>1.0497685185185185E-2</v>
       </c>
     </row>
@@ -557,4 +694,40 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002997A5-E14E-8043-89F8-27A40BC5DA2D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{028016B6-439B-054E-B222-D2659781BADC}">
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="3" spans="2:2">
+      <c r="B3" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/text_classification_hatespeech/TrainedModel_for_FeatureCreation/expResults.xlsx
+++ b/text_classification_hatespeech/TrainedModel_for_FeatureCreation/expResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YShimada-MBP16/Documents/Code_Github/DL_for_ImageData_and_Finetuning/text_classification_hatespeech/TrainedModel_for_FeatureCreation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC04396A-D56D-4149-B95C-1DABD0FBFE06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE1CC5A-960C-544C-986A-7588A4FA958F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35960" yWindow="3140" windowWidth="28300" windowHeight="17440" xr2:uid="{CC55D45F-FA6D-B349-84F8-A179CE0DED28}"/>
   </bookViews>
@@ -68,10 +68,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1 + text columns(TFIDF)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>hatespeech_zeroshot_tkn</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -93,6 +89,10 @@
     <rPh sb="13" eb="14">
       <t xml:space="preserve">モト </t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1 + 'text_token_tohokuBertBase</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -614,7 +614,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -655,7 +655,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>0.3449508</v>
@@ -672,13 +672,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>0.62109910000000002</v>
